--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3165932.150001143</v>
+        <v>3163680.070289936</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328534.791435719</v>
+        <v>8328534.79143572</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877527</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>76.97130521239121</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>13.02719212039628</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>16.61609021059958</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>186.1590670005681</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>94.29644372182837</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.84759100840573</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>218.8748435506846</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3137.566359992436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2806.503472648865</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2453.73481737875</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518381</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395024</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571093</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591989</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339178</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67089635177561</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3137.566359992436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2806.503472648865</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2453.73481737875</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2080.269059117671</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.129727141859</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.7269654071711</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>459.7907824792642</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>309.6741430669284</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>161.7610494845353</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>161.7610494845353</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>161.7610494845353</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278958</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.168009380941</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.3754302374108</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5185,13 +5185,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6549,19 +6549,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6917,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6941,43 +6941,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,34 +7190,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,13 +7403,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998291</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729390.5400014698</v>
+        <v>729390.5400014699</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729390.5400014698</v>
+        <v>729390.5400014699</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,28 +26433,28 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680579</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809231.1486458951</v>
+        <v>-809231.1486458948</v>
       </c>
       <c r="C6" t="n">
-        <v>519513.5970816974</v>
+        <v>519513.5970816978</v>
       </c>
       <c r="D6" t="n">
-        <v>519513.5970816975</v>
+        <v>519513.5970816973</v>
       </c>
       <c r="E6" t="n">
-        <v>267941.3068806874</v>
+        <v>267906.5689552515</v>
       </c>
       <c r="F6" t="n">
-        <v>593353.7686880424</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="G6" t="n">
-        <v>593353.7686880425</v>
+        <v>593319.0307626065</v>
       </c>
       <c r="H6" t="n">
-        <v>593353.7686880426</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="I6" t="n">
-        <v>593353.7686880428</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="J6" t="n">
-        <v>375822.5662907651</v>
+        <v>375787.8283653295</v>
       </c>
       <c r="K6" t="n">
-        <v>593353.7686880426</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="L6" t="n">
-        <v>593353.7686880424</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="M6" t="n">
-        <v>508298.7407525306</v>
+        <v>508264.0028270949</v>
       </c>
       <c r="N6" t="n">
-        <v>593353.7686880426</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="O6" t="n">
-        <v>593353.7686880425</v>
+        <v>593319.0307626072</v>
       </c>
       <c r="P6" t="n">
-        <v>593353.7686880424</v>
+        <v>593319.0307626069</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>289.2070795747053</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>174.0238667465107</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32522828944181</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>365.3142798616622</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>64.83610495833386</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.45857119249241</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>186.3642471972071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>32.1203284082174</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32002,7 +32002,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162575</v>
       </c>
       <c r="M14" t="n">
         <v>965.6463440175675</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860364</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462702</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
